--- a/biology/Zoologie/Colombar_de_Pemba/Colombar_de_Pemba.xlsx
+++ b/biology/Zoologie/Colombar_de_Pemba/Colombar_de_Pemba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Treron pembaensis
 Le Colombar de Pemba (Treron pembaensis) est une espèce d’oiseaux de la famille des Columbidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Treron pembaensis a été décrite en 1940 par l'ornithologue britannique Richard Pakenham (d) (1906-1993)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Treron pembaensis a été décrite en 1940 par l'ornithologue britannique Richard Pakenham (d) (1906-1993).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'est connue que de l'île de Pemba au large de la Tanzanie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'est connue que de l'île de Pemba au large de la Tanzanie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de pemba et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, l'île de Pemba[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de pemba et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, l'île de Pemba. 
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) R. H. W. Pakenham, « A new Green Pigeon from Pemba Island », Bulletin of the British Ornithologists' Club, Londres, BOC, vol. 60,‎ 1940, p. 94-95 (ISSN 0007-1595 et 2513-9894, OCLC 1537351, lire en ligne)</t>
         </is>
